--- a/DaySale_2025-05-25_21-56.xlsx
+++ b/DaySale_2025-05-25_21-56.xlsx
@@ -278,6 +278,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -524,9 +536,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>351.0000</t>
   </si>
   <si>
@@ -665,10 +674,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>49.9800</t>
   </si>
   <si>
     <t>VOMISTOP 10 SOFT GELATIN CAPS.</t>
@@ -728,12 +740,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -747,9 +762,6 @@
   </si>
   <si>
     <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2158,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2224,7 +2236,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2323,7 +2335,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,7 +2517,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,7 +2757,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2762,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2778,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2795,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,31 +2922,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,28 +2955,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,31 +3054,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,24 +3094,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3115,7 +3127,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3132,7 +3144,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3148,7 +3160,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3214,7 +3226,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3231,7 +3243,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,7 +3259,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3264,7 +3276,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3280,7 +3292,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3297,7 +3309,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3313,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3330,7 +3342,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3346,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3379,7 +3391,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3396,7 +3408,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3412,7 +3424,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,7 +3450,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3455,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3471,7 +3483,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3511,7 +3523,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3525,10 +3537,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3577,7 +3589,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3594,7 +3606,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3610,7 +3622,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3627,7 +3639,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3643,7 +3655,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,31 +3681,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,31 +3714,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,28 +3747,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3768,28 +3780,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3801,31 +3813,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3847,18 +3859,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,7 +3879,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3880,18 +3892,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,31 +3912,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,28 +3945,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3966,28 +3978,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3999,28 +4011,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4032,66 +4044,99 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5575.2600000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>249</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>250</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>251</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>125</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>164</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>108</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5607.5799999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4505,10 +4550,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
